--- a/CapCoal Mine Complex, Australia, M0021.xlsx
+++ b/CapCoal Mine Complex, Australia, M0021.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">

--- a/CapCoal Mine Complex, Australia, M0021.xlsx
+++ b/CapCoal Mine Complex, Australia, M0021.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">

--- a/CapCoal Mine Complex, Australia, M0021.xlsx
+++ b/CapCoal Mine Complex, Australia, M0021.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">

--- a/CapCoal Mine Complex, Australia, M0021.xlsx
+++ b/CapCoal Mine Complex, Australia, M0021.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for CapCoal Mine Complex, Australia, M0021, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="S34" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T34" s="0" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="S35" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T35" s="0" t="inlineStr">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="S36" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T36" s="0" t="inlineStr">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="S37" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T37" s="0" t="inlineStr">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="S38" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T38" s="0" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="S39" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T39" s="0" t="inlineStr">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="S40" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T40" s="0" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="S41" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T41" s="0" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="S42" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T42" s="0" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="S43" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T43" s="0" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="S44" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T44" s="0" t="inlineStr">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="S45" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T45" s="0" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="S46" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T46" s="0" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="S47" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T47" s="0" t="inlineStr">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="S48" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T48" s="0" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="S49" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T49" s="0" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="S50" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T50" s="0" t="inlineStr">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="S51" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T51" s="0" t="inlineStr">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="S52" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T52" s="0" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="S53" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T53" s="0" t="inlineStr">
@@ -7064,7 +7064,7 @@
       </c>
       <c r="S54" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T54" s="0" t="inlineStr">
@@ -7156,7 +7156,7 @@
       </c>
       <c r="S55" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T55" s="0" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="S56" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T56" s="0" t="inlineStr">
